--- a/Design/Bill of Materials/Bill Of Materials - Updated.xlsx
+++ b/Design/Bill of Materials/Bill Of Materials - Updated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -255,6 +255,23 @@
   </si>
   <si>
     <t>5.3 CFM @ 90 ps - 6.2 CFM @ 40 psi (CentralPneumatic)</t>
+  </si>
+  <si>
+    <r>
+      <t>Single, 2-Hole 90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>° Bracket</t>
+    </r>
+  </si>
+  <si>
+    <t>5537T181</t>
   </si>
 </sst>
 </file>
@@ -661,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,7 +977,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -977,7 +994,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -994,7 +1011,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1011,7 +1028,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1028,76 +1045,76 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
+      <c r="A22" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3">
-        <v>72</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
+      <c r="A23" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3">
-        <v>71.400000000000006</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
+      <c r="A24" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="5">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>136.32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2651.8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>60</v>
@@ -1106,82 +1123,100 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3">
-        <v>2562.4</v>
+        <v>2651.8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3">
-        <v>1734</v>
+        <v>2562.4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>16.8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <v>67708</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>142.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Design/Bill of Materials/Bill Of Materials - Updated.xlsx
+++ b/Design/Bill of Materials/Bill Of Materials - Updated.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocs\Desktop\School\Active Classes\Senior Design\Git\AgileRoboticControls\Design\Bill of Materials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -272,6 +277,15 @@
   </si>
   <si>
     <t>5537T181</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -311,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -347,12 +361,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -376,6 +410,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -386,6 +422,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -434,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,7 +508,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +732,7 @@
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +748,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -724,8 +766,11 @@
       <c r="E2" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,8 +784,11 @@
       <c r="E3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -756,8 +804,11 @@
       <c r="E4" s="2">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -773,8 +824,11 @@
       <c r="E5" s="2">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -790,8 +844,11 @@
       <c r="E6" s="2">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -807,8 +864,11 @@
       <c r="E7" s="2">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -824,8 +884,11 @@
       <c r="E8" s="2">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -839,8 +902,11 @@
       <c r="E9" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -856,8 +922,11 @@
       <c r="E10" s="2">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -873,8 +942,11 @@
       <c r="E11" s="2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -890,8 +962,11 @@
       <c r="E12" s="2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -907,8 +982,11 @@
       <c r="E13" s="2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -924,8 +1002,11 @@
       <c r="E14" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -941,8 +1022,11 @@
       <c r="E15" s="2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -957,6 +1041,9 @@
       </c>
       <c r="E16" s="2">
         <v>0.7</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">

--- a/Design/Bill of Materials/Bill Of Materials - Updated.xlsx
+++ b/Design/Bill of Materials/Bill Of Materials - Updated.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -287,6 +287,84 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>478-3145-1-ND</t>
+  </si>
+  <si>
+    <t>0.047 uF cap</t>
+  </si>
+  <si>
+    <t>0.056 uF cap</t>
+  </si>
+  <si>
+    <t>BC2686CT-ND</t>
+  </si>
+  <si>
+    <t>0.068 uF cap</t>
+  </si>
+  <si>
+    <t>0.22 uF cap</t>
+  </si>
+  <si>
+    <t>0.012 uF cap</t>
+  </si>
+  <si>
+    <t>399-4381-ND</t>
+  </si>
+  <si>
+    <t>399-4466-1-ND</t>
+  </si>
+  <si>
+    <t>399-9799-ND</t>
+  </si>
+  <si>
+    <t>SRW091-WG-ND</t>
+  </si>
+  <si>
+    <t>Debug panel hosuing</t>
+  </si>
+  <si>
+    <t>0.022uF cap</t>
+  </si>
+  <si>
+    <t>BC2677CT-ND</t>
+  </si>
+  <si>
+    <t>0.018uF cap</t>
+  </si>
+  <si>
+    <t>490-8989-1-ND</t>
+  </si>
+  <si>
+    <t>1N4735A-TPCT-ND</t>
+  </si>
+  <si>
+    <t>6.2 Zener Diode</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>10K resistor</t>
+  </si>
+  <si>
+    <t>CF14JT47K0CT-ND</t>
+  </si>
+  <si>
+    <t>47K resistor</t>
+  </si>
+  <si>
+    <t>CF14JT330RCT-ND</t>
+  </si>
+  <si>
+    <t>330 resistor</t>
+  </si>
+  <si>
+    <t>BC547BTACT-ND</t>
+  </si>
+  <si>
+    <t>NPN transistor</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +393,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -412,6 +497,17 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -717,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,6 +1395,208 @@
       </c>
       <c r="E31" s="3">
         <v>142.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13">
+        <v>8</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2">
+        <f>0.44*C32</f>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*0.37</f>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2">
+        <f>C34*0.4</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13">
+        <v>8</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2">
+        <f>C35*0.32</f>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13">
+        <v>8</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="2">
+        <f>C36*0.66</f>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2">
+        <f>C37*0.44</f>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13">
+        <v>8</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="2">
+        <f>C38*0.33</f>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="2">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="13">
+        <v>2</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="13">
+        <v>2</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="13">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
